--- a/data_year/zb/能源/石油平衡表.xlsx
+++ b/data_year/zb/能源/石油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,1449 +548,792 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2352.92</v>
+        <v>2663.25</v>
       </c>
       <c r="C2" t="n">
-        <v>6398.9936424381</v>
+        <v>15079.2536346331</v>
       </c>
       <c r="D2" t="n">
-        <v>426.97</v>
+        <v>593.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1635.86</v>
+        <v>2578.2347772976</v>
       </c>
       <c r="F2" t="n">
-        <v>788.505</v>
+        <v>1382.50267981206</v>
       </c>
       <c r="G2" t="n">
-        <v>2172.14</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.88</v>
-      </c>
+        <v>4079</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>1336.45</v>
+        <v>3541.90557587077</v>
       </c>
       <c r="J2" t="n">
-        <v>11248.52</v>
+        <v>18555.0111878774</v>
       </c>
       <c r="K2" t="n">
-        <v>8859.99</v>
+        <v>15857.76</v>
       </c>
       <c r="L2" t="n">
-        <v>-1244.98</v>
+        <v>-1481.19</v>
       </c>
       <c r="M2" t="n">
-        <v>840.5700000000001</v>
+        <v>2483.1098513902</v>
       </c>
       <c r="N2" t="n">
-        <v>247.03</v>
+        <v>481.00802659</v>
       </c>
       <c r="O2" t="n">
-        <v>1178.15</v>
+        <v>385.33</v>
       </c>
       <c r="P2" t="n">
-        <v>721.92</v>
+        <v>1684.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>22631.37</v>
+        <v>44178.43</v>
       </c>
       <c r="R2" t="n">
-        <v>135.445</v>
+        <v>77.4037323708764</v>
       </c>
       <c r="S2" t="n">
-        <v>192.89</v>
+        <v>194.4</v>
       </c>
       <c r="T2" t="n">
-        <v>16300</v>
+        <v>20301.4</v>
       </c>
       <c r="U2" t="n">
-        <v>19950.115</v>
+        <v>41243.3762676291</v>
       </c>
       <c r="V2" t="n">
-        <v>22495.925</v>
+        <v>44101.0262676291</v>
       </c>
       <c r="W2" t="n">
-        <v>9748.49</v>
+        <v>29437.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2291.99</v>
+        <v>2334.48</v>
       </c>
       <c r="C3" t="n">
-        <v>6587.89868314815</v>
+        <v>16221.0867888721</v>
       </c>
       <c r="D3" t="n">
-        <v>438.66</v>
+        <v>525.67</v>
       </c>
       <c r="E3" t="n">
-        <v>1673.71</v>
+        <v>2880.47309006599</v>
       </c>
       <c r="F3" t="n">
-        <v>838.6079999999999</v>
+        <v>1466.26353396645</v>
       </c>
       <c r="G3" t="n">
-        <v>2046.68</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22.76</v>
-      </c>
+        <v>4117.038</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>1374.81</v>
+        <v>3983.93092109482</v>
       </c>
       <c r="J3" t="n">
-        <v>11227.16</v>
+        <v>17986.0245428405</v>
       </c>
       <c r="K3" t="n">
-        <v>8898.389999999999</v>
+        <v>15579.94</v>
       </c>
       <c r="L3" t="n">
-        <v>-262.67</v>
+        <v>-2105</v>
       </c>
       <c r="M3" t="n">
-        <v>933.83</v>
+        <v>2581.78792887636</v>
       </c>
       <c r="N3" t="n">
-        <v>252.41</v>
+        <v>499.977712028756</v>
       </c>
       <c r="O3" t="n">
-        <v>1213.55</v>
+        <v>319.76</v>
       </c>
       <c r="P3" t="n">
-        <v>617.019999999999</v>
+        <v>1489.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>23204.67</v>
+        <v>45659.222</v>
       </c>
       <c r="R3" t="n">
-        <v>316.242000000006</v>
+        <v>39.6862448666384</v>
       </c>
       <c r="S3" t="n">
-        <v>189.34</v>
+        <v>181.74</v>
       </c>
       <c r="T3" t="n">
-        <v>16395.87</v>
+        <v>20287.55</v>
       </c>
       <c r="U3" t="n">
-        <v>20407.098</v>
+        <v>43103.3157551334</v>
       </c>
       <c r="V3" t="n">
-        <v>22888.428</v>
+        <v>45619.5357551334</v>
       </c>
       <c r="W3" t="n">
-        <v>9118.15</v>
+        <v>31593.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2606.76</v>
+        <v>2534.57</v>
       </c>
       <c r="C4" t="n">
-        <v>7041.681036956</v>
+        <v>17863.6337847386</v>
       </c>
       <c r="D4" t="n">
-        <v>420.7</v>
+        <v>493.52</v>
       </c>
       <c r="E4" t="n">
-        <v>1698.6</v>
+        <v>3067.78685801732</v>
       </c>
       <c r="F4" t="n">
-        <v>922.378</v>
+        <v>1537.90514079006</v>
       </c>
       <c r="G4" t="n">
-        <v>2139.19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.91</v>
-      </c>
+        <v>3884.294</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>1497.47</v>
+        <v>4291.57491014145</v>
       </c>
       <c r="J4" t="n">
-        <v>12309.41</v>
+        <v>17753.2358219949</v>
       </c>
       <c r="K4" t="n">
-        <v>9674.280000000001</v>
+        <v>15160.37</v>
       </c>
       <c r="L4" t="n">
-        <v>94.9400000000001</v>
+        <v>-2087.64</v>
       </c>
       <c r="M4" t="n">
-        <v>1046.6</v>
+        <v>2740.72755460064</v>
       </c>
       <c r="N4" t="n">
-        <v>273.02</v>
+        <v>542.386247442508</v>
       </c>
       <c r="O4" t="n">
-        <v>1275.57</v>
+        <v>292.39</v>
       </c>
       <c r="P4" t="n">
-        <v>891.579999999998</v>
+        <v>1748.66000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>24925.09</v>
+        <v>47864.676</v>
       </c>
       <c r="R4" t="n">
-        <v>135.931999999997</v>
+        <v>67.4136549205282</v>
       </c>
       <c r="S4" t="n">
-        <v>190.24</v>
+        <v>182.04</v>
       </c>
       <c r="T4" t="n">
-        <v>16700</v>
+        <v>20747.8</v>
       </c>
       <c r="U4" t="n">
-        <v>21992.158</v>
+        <v>45080.6523450795</v>
       </c>
       <c r="V4" t="n">
-        <v>24789.158</v>
+        <v>47797.2623450795</v>
       </c>
       <c r="W4" t="n">
-        <v>10269.34</v>
+        <v>33088.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2901.36</v>
+        <v>2295.69</v>
       </c>
       <c r="C5" t="n">
-        <v>7916.74279385711</v>
+        <v>18967.5849980766</v>
       </c>
       <c r="D5" t="n">
-        <v>417.97</v>
+        <v>448.22</v>
       </c>
       <c r="E5" t="n">
-        <v>1756.39</v>
+        <v>3349.72080183528</v>
       </c>
       <c r="F5" t="n">
-        <v>1057.53</v>
+        <v>1650.26871431683</v>
       </c>
       <c r="G5" t="n">
-        <v>2540.84</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20.93</v>
-      </c>
+        <v>4176.66</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>1735.75</v>
+        <v>4752.41527367967</v>
       </c>
       <c r="J5" t="n">
-        <v>13196.4624662237</v>
+        <v>17594.6358219949</v>
       </c>
       <c r="K5" t="n">
-        <v>10268.71</v>
+        <v>15235.44</v>
       </c>
       <c r="L5" t="n">
-        <v>-68.24000000000071</v>
+        <v>-1086.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1190.56</v>
+        <v>3090.62829285402</v>
       </c>
       <c r="N5" t="n">
-        <v>272.33</v>
+        <v>565.376595178232</v>
       </c>
       <c r="O5" t="n">
-        <v>1491.57</v>
+        <v>265.08</v>
       </c>
       <c r="P5" t="n">
-        <v>970.889999999999</v>
+        <v>1582.39</v>
       </c>
       <c r="Q5" t="n">
-        <v>27540.510001</v>
+        <v>49993.9</v>
       </c>
       <c r="R5" t="n">
-        <v>414.740000999995</v>
+        <v>23.2666169150698</v>
       </c>
       <c r="S5" t="n">
-        <v>161.9</v>
+        <v>216.12</v>
       </c>
       <c r="T5" t="n">
-        <v>16959.98</v>
+        <v>20991.85</v>
       </c>
       <c r="U5" t="n">
-        <v>24062.51</v>
+        <v>47458.8233830849</v>
       </c>
       <c r="V5" t="n">
-        <v>27125.77</v>
+        <v>49970.6333830849</v>
       </c>
       <c r="W5" t="n">
-        <v>13189.61</v>
+        <v>34264.81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3488.18</v>
+        <v>2440</v>
       </c>
       <c r="C6" t="n">
-        <v>9549.58715259267</v>
+        <v>19558.4807734488</v>
       </c>
       <c r="D6" t="n">
-        <v>418.47</v>
+        <v>521.3</v>
       </c>
       <c r="E6" t="n">
-        <v>2001.6778</v>
+        <v>3152.02918342415</v>
       </c>
       <c r="F6" t="n">
-        <v>1231.427324</v>
+        <v>1717.6670702111</v>
       </c>
       <c r="G6" t="n">
-        <v>2240.58</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.51</v>
-      </c>
+        <v>4213.92</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2208.047453</v>
+        <v>5305.21852150964</v>
       </c>
       <c r="J6" t="n">
-        <v>14968.767547</v>
+        <v>18357.4699152259</v>
       </c>
       <c r="K6" t="n">
-        <v>11455.597547</v>
+        <v>15854.48</v>
       </c>
       <c r="L6" t="n">
-        <v>-521.854280999999</v>
+        <v>-1046.84999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>1392.31</v>
+        <v>3205.2769106865</v>
       </c>
       <c r="N6" t="n">
-        <v>348.715561</v>
+        <v>563.218192321628</v>
       </c>
       <c r="O6" t="n">
-        <v>1864.07</v>
+        <v>254.09</v>
       </c>
       <c r="P6" t="n">
-        <v>1195.13</v>
+        <v>1664.61</v>
       </c>
       <c r="Q6" t="n">
-        <v>32116.20572</v>
+        <v>52061.79</v>
       </c>
       <c r="R6" t="n">
-        <v>415.664903000004</v>
+        <v>202.429290877828</v>
       </c>
       <c r="S6" t="n">
-        <v>149.71</v>
+        <v>110.33</v>
       </c>
       <c r="T6" t="n">
-        <v>17587.32</v>
+        <v>21142.92</v>
       </c>
       <c r="U6" t="n">
-        <v>28062.650817</v>
+        <v>49309.0307091222</v>
       </c>
       <c r="V6" t="n">
-        <v>31700.540817</v>
+        <v>51859.3607091222</v>
       </c>
       <c r="W6" t="n">
-        <v>17291.32</v>
+        <v>36179.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2895.98418</v>
+        <v>2926.935686</v>
       </c>
       <c r="C7" t="n">
-        <v>10928.4961810491</v>
+        <v>20663.1120521959</v>
       </c>
       <c r="D7" t="n">
-        <v>429.05</v>
+        <v>493.21</v>
       </c>
       <c r="E7" t="n">
-        <v>1974.1836</v>
+        <v>3683.3370669878</v>
       </c>
       <c r="F7" t="n">
-        <v>1451.6948057</v>
+        <v>1733.4068692469</v>
       </c>
       <c r="G7" t="n">
-        <v>2888.08</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.39</v>
-      </c>
+        <v>5128.15</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>2284.433456</v>
+        <v>6162.2491561863</v>
       </c>
       <c r="J7" t="n">
-        <v>14030.4048599576</v>
+        <v>19718.045554</v>
       </c>
       <c r="K7" t="n">
-        <v>11107.528602</v>
+        <v>16739.74</v>
       </c>
       <c r="L7" t="n">
-        <v>128.760851</v>
+        <v>-388.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1502.1886</v>
+        <v>3384.3260463087</v>
       </c>
       <c r="N7" t="n">
-        <v>375.639226</v>
+        <v>615.6968415548</v>
       </c>
       <c r="O7" t="n">
-        <v>1306.42418</v>
+        <v>265.54</v>
       </c>
       <c r="P7" t="n">
-        <v>1146.12</v>
+        <v>2168.185686</v>
       </c>
       <c r="Q7" t="n">
-        <v>32539.125251</v>
+        <v>55688</v>
       </c>
       <c r="R7" t="n">
-        <v>-7.8974187</v>
+        <v>-272.1738115499</v>
       </c>
       <c r="S7" t="n">
-        <v>155.42</v>
+        <v>87.56</v>
       </c>
       <c r="T7" t="n">
-        <v>18135.29</v>
+        <v>21455.58</v>
       </c>
       <c r="U7" t="n">
-        <v>29495.6184897</v>
+        <v>52945.6781255499</v>
       </c>
       <c r="V7" t="n">
-        <v>32547.0226697</v>
+        <v>55960.1738115499</v>
       </c>
       <c r="W7" t="n">
-        <v>17163.15</v>
+        <v>39748.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3062.106958</v>
+        <v>3264.32</v>
       </c>
       <c r="C8" t="n">
-        <v>11849.1703339392</v>
+        <v>21146.0909132714</v>
       </c>
       <c r="D8" t="n">
-        <v>427.76371</v>
+        <v>517.75</v>
       </c>
       <c r="E8" t="n">
-        <v>2077.61395</v>
+        <v>3537.137309023</v>
       </c>
       <c r="F8" t="n">
-        <v>1540.2023111</v>
+        <v>1730.3286640883</v>
       </c>
       <c r="G8" t="n">
-        <v>2626.19</v>
+        <v>6382.934</v>
       </c>
       <c r="H8" t="n">
-        <v>13.39</v>
+        <v>4.79</v>
       </c>
       <c r="I8" t="n">
-        <v>2564.230063</v>
+        <v>6712.817829333</v>
       </c>
       <c r="J8" t="n">
-        <v>14804.2834014943</v>
+        <v>20382.52027</v>
       </c>
       <c r="K8" t="n">
-        <v>11707.478889</v>
+        <v>17100.15</v>
       </c>
       <c r="L8" t="n">
-        <v>-373.312959999999</v>
+        <v>-377.84</v>
       </c>
       <c r="M8" t="n">
-        <v>1648.50564</v>
+        <v>3599.1017971275</v>
       </c>
       <c r="N8" t="n">
-        <v>392.210426</v>
+        <v>584.8971633203</v>
       </c>
       <c r="O8" t="n">
-        <v>1343.677198</v>
+        <v>284.56</v>
       </c>
       <c r="P8" t="n">
-        <v>1277.27605</v>
+        <v>2457.22</v>
       </c>
       <c r="Q8" t="n">
-        <v>34930.029341</v>
+        <v>57710.636</v>
       </c>
       <c r="R8" t="n">
-        <v>53.8231289000032</v>
+        <v>17.7420025958</v>
       </c>
       <c r="S8" t="n">
-        <v>199.9504</v>
+        <v>41.61</v>
       </c>
       <c r="T8" t="n">
-        <v>18476.57</v>
+        <v>19968.52</v>
       </c>
       <c r="U8" t="n">
-        <v>31614.1488541</v>
+        <v>54386.9639974042</v>
       </c>
       <c r="V8" t="n">
-        <v>34876.2062121</v>
+        <v>57692.8939974042</v>
       </c>
       <c r="W8" t="n">
-        <v>19452.96</v>
+        <v>44502.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2601.19720000001</v>
+        <v>3468.89936505</v>
       </c>
       <c r="C9" t="n">
-        <v>12906.6540477537</v>
+        <v>22075.8152134479</v>
       </c>
       <c r="D9" t="n">
-        <v>430.1</v>
+        <v>522.644802</v>
       </c>
       <c r="E9" t="n">
-        <v>2215.9498</v>
+        <v>3502.7004163372</v>
       </c>
       <c r="F9" t="n">
-        <v>1399.92144</v>
+        <v>1786.3688093544</v>
       </c>
       <c r="G9" t="n">
-        <v>2664.27</v>
+        <v>7026.6607694</v>
       </c>
       <c r="H9" t="n">
-        <v>4.9628</v>
+        <v>4.7498</v>
       </c>
       <c r="I9" t="n">
-        <v>2981.113657154</v>
+        <v>7139.7315287141</v>
       </c>
       <c r="J9" t="n">
-        <v>14905.1308463212</v>
+        <v>21486.7314291768</v>
       </c>
       <c r="K9" t="n">
-        <v>12269.24936216</v>
+        <v>17980.4719749</v>
       </c>
       <c r="L9" t="n">
-        <v>-458.019070000001</v>
+        <v>-454.342774</v>
       </c>
       <c r="M9" t="n">
-        <v>1823.059362</v>
+        <v>3803.5086152949</v>
       </c>
       <c r="N9" t="n">
-        <v>426.912849</v>
+        <v>601.06189075</v>
       </c>
       <c r="O9" t="n">
-        <v>884.0128</v>
+        <v>280.553917</v>
       </c>
       <c r="P9" t="n">
-        <v>1282.1216</v>
+        <v>2660.95084605</v>
       </c>
       <c r="Q9" t="n">
-        <v>36648.880931</v>
+        <v>60810.8404959</v>
       </c>
       <c r="R9" t="n">
-        <v>-9.862789314014661</v>
+        <v>414.9230758365</v>
       </c>
       <c r="S9" t="n">
-        <v>199.9504</v>
+        <v>47.0299927368</v>
       </c>
       <c r="T9" t="n">
-        <v>18631.82</v>
+        <v>19150.61</v>
       </c>
       <c r="U9" t="n">
-        <v>33857.596120314</v>
+        <v>56879.9880622767</v>
       </c>
       <c r="V9" t="n">
-        <v>36658.743720314</v>
+        <v>60395.9174200635</v>
       </c>
       <c r="W9" t="n">
-        <v>21139.35</v>
+        <v>49141.2340393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2397.60286816</v>
+        <v>3593.256330682</v>
       </c>
       <c r="C10" t="n">
-        <v>13279.4399419946</v>
+        <v>22738.5813810579</v>
       </c>
       <c r="D10" t="n">
-        <v>413.78</v>
+        <v>590.174</v>
       </c>
       <c r="E10" t="n">
-        <v>2353.778288</v>
+        <v>3458.23337449</v>
       </c>
       <c r="F10" t="n">
-        <v>1265.7800564</v>
+        <v>1724.9338927014</v>
       </c>
       <c r="G10" t="n">
-        <v>2945.65</v>
+        <v>7557.4094992</v>
       </c>
       <c r="H10" t="n">
-        <v>2.028818</v>
+        <v>4.7333</v>
       </c>
       <c r="I10" t="n">
-        <v>2916.86941534888</v>
+        <v>7328.4182232196</v>
       </c>
       <c r="J10" t="n">
-        <v>15603.0916318201</v>
+        <v>22460.2714490247</v>
       </c>
       <c r="K10" t="n">
-        <v>13170.7933177654</v>
+        <v>18847.5553997635</v>
       </c>
       <c r="L10" t="n">
-        <v>-1795</v>
+        <v>-1742.71818</v>
       </c>
       <c r="M10" t="n">
-        <v>1517.48</v>
+        <v>3935.6641039938</v>
       </c>
       <c r="N10" t="n">
-        <v>366.42</v>
+        <v>598.9975712678</v>
       </c>
       <c r="O10" t="n">
-        <v>618.12024</v>
+        <v>309.3086</v>
       </c>
       <c r="P10" t="n">
-        <v>1363.67381016</v>
+        <v>2689.040430682</v>
       </c>
       <c r="Q10" t="n">
-        <v>37318.79313</v>
+        <v>63726.5626788</v>
       </c>
       <c r="R10" t="n">
-        <v>15.9387843257646</v>
+        <v>1481.4622944884</v>
       </c>
       <c r="S10" t="n">
-        <v>202.3504</v>
+        <v>28.82</v>
       </c>
       <c r="T10" t="n">
-        <v>19043.96</v>
+        <v>18932.4204</v>
       </c>
       <c r="U10" t="n">
-        <v>34702.9010775142</v>
+        <v>58623.0240536296</v>
       </c>
       <c r="V10" t="n">
-        <v>37302.8543456742</v>
+        <v>62245.1003843116</v>
       </c>
       <c r="W10" t="n">
-        <v>23015.45</v>
+        <v>54094.269958</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2505.9</v>
+        <v>3453.6</v>
       </c>
       <c r="C11" t="n">
-        <v>13548.5</v>
+        <v>22109.6</v>
       </c>
       <c r="D11" t="n">
-        <v>383.3</v>
+        <v>653.8</v>
       </c>
       <c r="E11" t="n">
-        <v>2296.3</v>
+        <v>3460.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1308.1</v>
+        <v>1748.2</v>
       </c>
       <c r="G11" t="n">
-        <v>3916.6</v>
+        <v>8211.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3166.8</v>
+        <v>7314</v>
       </c>
       <c r="J11" t="n">
-        <v>15692.9</v>
+        <v>25210.6</v>
       </c>
       <c r="K11" t="n">
-        <v>13153.7</v>
+        <v>21732.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-2211.9</v>
+        <v>-2091.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1942.3</v>
+        <v>4055.1</v>
       </c>
       <c r="N11" t="n">
-        <v>429.7</v>
+        <v>608.4</v>
       </c>
       <c r="O11" t="n">
-        <v>501.2</v>
+        <v>308.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1621.1</v>
+        <v>2487.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>38462.8</v>
+        <v>66900.89999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>78.3</v>
+        <v>2394.3</v>
       </c>
       <c r="S11" t="n">
-        <v>188.7</v>
+        <v>34.5</v>
       </c>
       <c r="T11" t="n">
-        <v>18949</v>
+        <v>19101.4</v>
       </c>
       <c r="U11" t="n">
-        <v>35689.9</v>
+        <v>61018.5</v>
       </c>
       <c r="V11" t="n">
-        <v>38384.5</v>
+        <v>64506.5</v>
       </c>
       <c r="W11" t="n">
-        <v>25642.4</v>
+        <v>58102.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2663.25</v>
+        <v>3265.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15079.2536346331</v>
+        <v>20481.4</v>
       </c>
       <c r="D12" t="n">
-        <v>593.12</v>
+        <v>677.7</v>
       </c>
       <c r="E12" t="n">
-        <v>2578.2347772976</v>
+        <v>3469.9</v>
       </c>
       <c r="F12" t="n">
-        <v>1382.5026798121</v>
+        <v>1773.1</v>
       </c>
       <c r="G12" t="n">
-        <v>4079</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+        <v>7551</v>
+      </c>
+      <c r="H12" t="n">
+        <v>28.9</v>
+      </c>
       <c r="I12" t="n">
-        <v>3541.9055758708</v>
+        <v>7170.1</v>
       </c>
       <c r="J12" t="n">
-        <v>18555.0111878774</v>
+        <v>27711.1</v>
       </c>
       <c r="K12" t="n">
-        <v>15857.76</v>
+        <v>24428.4</v>
       </c>
       <c r="L12" t="n">
-        <v>-1481.19</v>
+        <v>-5643.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2483.1098513902</v>
+        <v>4180.3</v>
       </c>
       <c r="N12" t="n">
-        <v>481.00802659</v>
+        <v>583.3</v>
       </c>
       <c r="O12" t="n">
-        <v>385.33</v>
+        <v>321.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1684.8</v>
+        <v>2232.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>44178.43</v>
+        <v>67553.7</v>
       </c>
       <c r="R12" t="n">
-        <v>77.4037323709</v>
+        <v>2184.6</v>
       </c>
       <c r="S12" t="n">
-        <v>194.4</v>
+        <v>18.3</v>
       </c>
       <c r="T12" t="n">
-        <v>20301.4</v>
+        <v>19476.9</v>
       </c>
       <c r="U12" t="n">
-        <v>41243.3762676291</v>
+        <v>62085.2</v>
       </c>
       <c r="V12" t="n">
-        <v>44101.0262676291</v>
+        <v>65369.1</v>
       </c>
       <c r="W12" t="n">
-        <v>29437.22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2469.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>16021</v>
-      </c>
-      <c r="D13" t="n">
-        <v>525.67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2880.47309006599</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1466.26353396645</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4117.038</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>3983.93092109482</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18005</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15463.9</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-2105</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2521.8</v>
-      </c>
-      <c r="N13" t="n">
-        <v>499.977712028756</v>
-      </c>
-      <c r="O13" t="n">
-        <v>319.76</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1624.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>45659.222</v>
-      </c>
-      <c r="R13" t="n">
-        <v>280.686244866637</v>
-      </c>
-      <c r="S13" t="n">
-        <v>181.74</v>
-      </c>
-      <c r="T13" t="n">
-        <v>20287.55</v>
-      </c>
-      <c r="U13" t="n">
-        <v>42727.3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>45378.5357551334</v>
-      </c>
-      <c r="W13" t="n">
-        <v>31593.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2534.57</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17863.6337847386</v>
-      </c>
-      <c r="D14" t="n">
-        <v>493.52</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3067.78685801732</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1537.90514079006</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3884.294</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>4291.57491014145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17753.2358219949</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15160.37</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-2087.64</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2740.72755460064</v>
-      </c>
-      <c r="N14" t="n">
-        <v>542.386247442508</v>
-      </c>
-      <c r="O14" t="n">
-        <v>292.39</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1748.66000000001</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>47864.676</v>
-      </c>
-      <c r="R14" t="n">
-        <v>67.4136549205282</v>
-      </c>
-      <c r="S14" t="n">
-        <v>182.04</v>
-      </c>
-      <c r="T14" t="n">
-        <v>20747.8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>45080.6523450795</v>
-      </c>
-      <c r="V14" t="n">
-        <v>47797.2623450795</v>
-      </c>
-      <c r="W14" t="n">
-        <v>33088.81</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2295.69</v>
-      </c>
-      <c r="C15" t="n">
-        <v>18967.5849980766</v>
-      </c>
-      <c r="D15" t="n">
-        <v>448.22</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3349.72080183528</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1650.26871431683</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4176.66</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>4752.41527367967</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17594.6358219949</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15235.44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-1086.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3090.62829285402</v>
-      </c>
-      <c r="N15" t="n">
-        <v>565.376595178232</v>
-      </c>
-      <c r="O15" t="n">
-        <v>265.08</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1582.39</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>49993.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>23.2666169150698</v>
-      </c>
-      <c r="S15" t="n">
-        <v>216.12</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20991.85</v>
-      </c>
-      <c r="U15" t="n">
-        <v>47458.8233830849</v>
-      </c>
-      <c r="V15" t="n">
-        <v>49970.6333830849</v>
-      </c>
-      <c r="W15" t="n">
-        <v>34264.81</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2440</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19558.4807734488</v>
-      </c>
-      <c r="D16" t="n">
-        <v>521.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3152.02918342415</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1717.6670702111</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4213.92</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>5305.21852150964</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18357.4699152259</v>
-      </c>
-      <c r="K16" t="n">
-        <v>15854.48</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-1046.84999999999</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3205.2769106865</v>
-      </c>
-      <c r="N16" t="n">
-        <v>563.218192321628</v>
-      </c>
-      <c r="O16" t="n">
-        <v>254.09</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1664.61</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>52061.79</v>
-      </c>
-      <c r="R16" t="n">
-        <v>202.429290877828</v>
-      </c>
-      <c r="S16" t="n">
-        <v>110.33</v>
-      </c>
-      <c r="T16" t="n">
-        <v>21142.92</v>
-      </c>
-      <c r="U16" t="n">
-        <v>49309.0307091222</v>
-      </c>
-      <c r="V16" t="n">
-        <v>51859.3607091222</v>
-      </c>
-      <c r="W16" t="n">
-        <v>36179.64</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2926.935686</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20663.1120521959</v>
-      </c>
-      <c r="D17" t="n">
-        <v>493.21</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3683.3370669878</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1733.4068692469</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5128.15</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>6162.2491561863</v>
-      </c>
-      <c r="J17" t="n">
-        <v>19718.045554</v>
-      </c>
-      <c r="K17" t="n">
-        <v>16739.74</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-388.05</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3384.3260463087</v>
-      </c>
-      <c r="N17" t="n">
-        <v>615.6968415548</v>
-      </c>
-      <c r="O17" t="n">
-        <v>265.54</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2168.185686</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>55688</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-272.1738115499</v>
-      </c>
-      <c r="S17" t="n">
-        <v>87.56</v>
-      </c>
-      <c r="T17" t="n">
-        <v>21455.58</v>
-      </c>
-      <c r="U17" t="n">
-        <v>52945.6781255499</v>
-      </c>
-      <c r="V17" t="n">
-        <v>55960.1738115499</v>
-      </c>
-      <c r="W17" t="n">
-        <v>39748.62</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3264.32</v>
-      </c>
-      <c r="C18" t="n">
-        <v>21146.0909132714</v>
-      </c>
-      <c r="D18" t="n">
-        <v>517.75</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3537.137309023</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1730.3286640883</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6382.934</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6712.817829333</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20382.52027</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17100.15</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-377.84</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3599.1017971275</v>
-      </c>
-      <c r="N18" t="n">
-        <v>584.8971633203</v>
-      </c>
-      <c r="O18" t="n">
-        <v>284.56</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2457.22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>57710.636</v>
-      </c>
-      <c r="R18" t="n">
-        <v>17.7420025958</v>
-      </c>
-      <c r="S18" t="n">
-        <v>41.61</v>
-      </c>
-      <c r="T18" t="n">
-        <v>19968.52</v>
-      </c>
-      <c r="U18" t="n">
-        <v>54386.9639974042</v>
-      </c>
-      <c r="V18" t="n">
-        <v>57692.8939974042</v>
-      </c>
-      <c r="W18" t="n">
-        <v>44502.89</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3468.89936505</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22075.8152134479</v>
-      </c>
-      <c r="D19" t="n">
-        <v>522.644802</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3502.7004163372</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1786.3688093544</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7026.6607694</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.7498</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7139.7315287141</v>
-      </c>
-      <c r="J19" t="n">
-        <v>21486.7314291768</v>
-      </c>
-      <c r="K19" t="n">
-        <v>17980.4719749</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-454.342774</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3803.5086152949</v>
-      </c>
-      <c r="N19" t="n">
-        <v>601.06189075</v>
-      </c>
-      <c r="O19" t="n">
-        <v>280.553917</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2660.95084605</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>60810.8404959</v>
-      </c>
-      <c r="R19" t="n">
-        <v>414.9230758365</v>
-      </c>
-      <c r="S19" t="n">
-        <v>47.0299927368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>19150.61</v>
-      </c>
-      <c r="U19" t="n">
-        <v>56879.9880622767</v>
-      </c>
-      <c r="V19" t="n">
-        <v>60395.9174200635</v>
-      </c>
-      <c r="W19" t="n">
-        <v>49141.2340393</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3593.256330682</v>
-      </c>
-      <c r="C20" t="n">
-        <v>22738.5813810579</v>
-      </c>
-      <c r="D20" t="n">
-        <v>590.174</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3458.23337449</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1724.9338927014</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7557.4094992</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.7333</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7328.4182232196</v>
-      </c>
-      <c r="J20" t="n">
-        <v>22460.2714490247</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18847.5553997635</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-1742.71818</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3935.6641039938</v>
-      </c>
-      <c r="N20" t="n">
-        <v>598.9975712678</v>
-      </c>
-      <c r="O20" t="n">
-        <v>309.3086</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2689.040430682</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>63726.5626788</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1481.4622944884</v>
-      </c>
-      <c r="S20" t="n">
-        <v>28.82</v>
-      </c>
-      <c r="T20" t="n">
-        <v>18932.4204</v>
-      </c>
-      <c r="U20" t="n">
-        <v>58623.0240536296</v>
-      </c>
-      <c r="V20" t="n">
-        <v>62245.1003843116</v>
-      </c>
-      <c r="W20" t="n">
-        <v>54094.269958</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3453.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>22109.6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>653.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3460.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1748.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>8211.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7314</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25210.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>21732.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-2091.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4055.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>608.4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>308.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2487.9</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>66900.89999999999</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2394.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>19101.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>61018.5</v>
-      </c>
-      <c r="V21" t="n">
-        <v>64506.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>58102.2</v>
+        <v>61271.7</v>
       </c>
     </row>
   </sheetData>
